--- a/src/main/resources/excel/finished/6高炉/出铁作业日报表.xlsx
+++ b/src/main/resources/excel/finished/6高炉/出铁作业日报表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="出铁作业日报表" sheetId="5" r:id="rId1"/>
-    <sheet name="_tap_day_all" sheetId="4" r:id="rId2"/>
+    <sheet name="_tap_day_all" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1192,6 +1192,81 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,24 +1291,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,69 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,7 +1610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1635,38 +1637,38 @@
     <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="78">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="52">
         <f>_metadata!B1</f>
         <v>0</v>
       </c>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
@@ -1676,129 +1678,129 @@
       <c r="AJ1" s="4"/>
     </row>
     <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="83"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="57"/>
     </row>
     <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="62" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="62" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="89" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="92" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="86" t="s">
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="95"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="69"/>
     </row>
     <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="72" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1808,9 +1810,9 @@
       <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="58" t="s">
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -1864,25 +1866,25 @@
       <c r="AF4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="96" t="s">
+      <c r="AG4" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="96" t="s">
+      <c r="AH4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="96" t="s">
+      <c r="AI4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1912,7 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="37" t="s">
         <v>38</v>
       </c>
@@ -1962,10 +1964,10 @@
       <c r="AF5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="51"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="76"/>
     </row>
     <row r="6" spans="1:36" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -4982,10 +4984,10 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="23"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -5061,10 +5063,10 @@
       <c r="AJ27" s="49"/>
     </row>
     <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -5191,10 +5193,10 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="29">
         <v>1</v>
       </c>
@@ -5236,8 +5238,8 @@
       <c r="AJ29" s="31"/>
     </row>
     <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="33">
         <v>2</v>
       </c>
@@ -5279,8 +5281,8 @@
       <c r="AJ30" s="31"/>
     </row>
     <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="33">
         <v>3</v>
       </c>
@@ -5322,8 +5324,8 @@
       <c r="AJ31" s="31"/>
     </row>
     <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="27">
         <v>4</v>
       </c>
@@ -5366,6 +5368,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="C1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="C2:S2"/>
@@ -5382,18 +5396,6 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="A29:B32"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5744,7 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
